--- a/seeds_README.xlsx
+++ b/seeds_README.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/HabitatRecovery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{82E210CD-1D01-4AC2-9709-F20FE575F125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{417D1A7F-4988-4BA8-A09D-5A22F2965ED6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{84AFCF33-B145-4D21-957C-66CAB92B40BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7750" xr2:uid="{A88DC0C8-ACA0-4BE5-B06D-89C6163BBD4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>achmi</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Symphotrichium subspicatum</t>
+  </si>
+  <si>
+    <t>elpar</t>
+  </si>
+  <si>
+    <t>Eleocharis parvula</t>
   </si>
 </sst>
 </file>
@@ -448,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43F31D7-5B2F-453E-9EEE-BB07CFEFDEDA}">
-  <dimension ref="A10:B21"/>
+  <dimension ref="A10:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,12 +558,29 @@
         <v>23</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -786,15 +809,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -802,6 +816,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553FCE23-84C4-4FC2-A123-D1D8ED0F40A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3252AF53-8BC0-4B41-81E2-C616D3993040}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -820,27 +842,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553FCE23-84C4-4FC2-A123-D1D8ED0F40A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6098C256-2A78-494F-9E6F-B53669FD5623}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>